--- a/GROUP 5 STRUCTURE/09Aug22_SysCPPProgramming_SPRINT01_GROUP05/CUT/UT_IT Test cases/UT Testcases.xlsx
+++ b/GROUP 5 STRUCTURE/09Aug22_SysCPPProgramming_SPRINT01_GROUP05/CUT/UT_IT Test cases/UT Testcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBINDHU\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBINDHU\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F75EA895-C939-4FDB-8CA1-0D4D742AFBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B36A0EC1-C220-41BA-9837-4FC5ED517854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{818ED2FE-DEBC-4130-BB4C-29AB0DB4A259}"/>
   </bookViews>
@@ -220,12 +220,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> TC 01</t>
-  </si>
-  <si>
-    <t>TC 04</t>
-  </si>
-  <si>
     <t>manage_report</t>
   </si>
   <si>
@@ -244,9 +238,6 @@
     <t>System display the prioritse report</t>
   </si>
   <si>
-    <t>TC 1.2</t>
-  </si>
-  <si>
     <t>System verifies the Project ID and add</t>
   </si>
   <si>
@@ -256,9 +247,6 @@
     <t>//project ID=123456 // add</t>
   </si>
   <si>
-    <t>TC 2.1</t>
-  </si>
-  <si>
     <t>validate  project ID  and perform add</t>
   </si>
   <si>
@@ -268,9 +256,6 @@
     <t>System display the project ID  and add</t>
   </si>
   <si>
-    <t>TC 2.3</t>
-  </si>
-  <si>
     <t>employee delete  the project</t>
   </si>
   <si>
@@ -346,24 +331,9 @@
     <t>System verifies closes the ticket</t>
   </si>
   <si>
-    <t>TC 3.3</t>
-  </si>
-  <si>
-    <t>TC 3.2</t>
-  </si>
-  <si>
     <t>System displays closes the ticket</t>
   </si>
   <si>
-    <t>TC 2.2</t>
-  </si>
-  <si>
-    <t>TC 3.4</t>
-  </si>
-  <si>
-    <t>TC  3.1</t>
-  </si>
-  <si>
     <t>display ticket</t>
   </si>
   <si>
@@ -386,6 +356,36 @@
   </si>
   <si>
     <t>System display the prioritise report</t>
+  </si>
+  <si>
+    <t>UT- BTS TC_1</t>
+  </si>
+  <si>
+    <t>UT BTS TC_1.2</t>
+  </si>
+  <si>
+    <t>UT BTS TC_2.1</t>
+  </si>
+  <si>
+    <t>UT BTS TC_2.3</t>
+  </si>
+  <si>
+    <t>UT BTS TC_2.2</t>
+  </si>
+  <si>
+    <t>UT BTS TC_3.1</t>
+  </si>
+  <si>
+    <t>UT BTS TC_3.2</t>
+  </si>
+  <si>
+    <t>UT BTS TC_3.3</t>
+  </si>
+  <si>
+    <t>UT BTS TC_3.4</t>
+  </si>
+  <si>
+    <t>UT BTS TC_4</t>
   </si>
 </sst>
 </file>
@@ -805,7 +805,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -880,7 +880,7 @@
     </row>
     <row r="6" spans="1:11" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="8" spans="1:11" ht="50" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -963,25 +963,25 @@
     </row>
     <row r="9" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>16</v>
@@ -990,7 +990,7 @@
         <v>18</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>16</v>
@@ -998,25 +998,25 @@
     </row>
     <row r="10" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>16</v>
@@ -1025,7 +1025,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>16</v>
@@ -1033,25 +1033,25 @@
     </row>
     <row r="11" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>16</v>
@@ -1060,7 +1060,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>16</v>
@@ -1081,25 +1081,25 @@
     </row>
     <row r="13" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>16</v>
@@ -1108,7 +1108,7 @@
         <v>18</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>16</v>
@@ -1116,25 +1116,25 @@
     </row>
     <row r="14" spans="1:11" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
@@ -1143,7 +1143,7 @@
         <v>18</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>16</v>
@@ -1151,25 +1151,25 @@
     </row>
     <row r="15" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -1178,7 +1178,7 @@
         <v>18</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>16</v>
@@ -1186,25 +1186,25 @@
     </row>
     <row r="16" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
@@ -1213,7 +1213,7 @@
         <v>18</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>16</v>
@@ -1221,25 +1221,25 @@
     </row>
     <row r="17" spans="1:11" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="G17" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>16</v>
@@ -1248,7 +1248,7 @@
         <v>18</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
